--- a/xlsx/棱镜计划_intext.xlsx
+++ b/xlsx/棱镜计划_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="406">
   <si>
     <t>棱镜计划</t>
   </si>
@@ -29,7 +29,7 @@
     <t>棱镜</t>
   </si>
   <si>
-    <t>政策_政策_美國_棱镜计划</t>
+    <t>政策_政策_美国_棱镜计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%82%AB%E5%85%89</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家安全局</t>
+    <t>美国国家安全局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A7%84%E6%A8%A1%E7%9B%91%E6%8E%A7</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%AF%E9%9A%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>梯隊系統</t>
+    <t>梯队系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Main_Core</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%84%9B%E5%9C%8B%E8%80%85%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國愛國者法案</t>
+    <t>美国爱国者法案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Foreign_Intelligence_Surveillance_Court</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%B2%E6%88%B0%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美國網戰司令部</t>
+    <t>美国网战司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國土安全部</t>
+    <t>美国国土安全部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Information_Awareness_Office</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%9B%A3%E6%8E%A7</t>
   </si>
   <si>
-    <t>全球監控</t>
+    <t>全球监控</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Origins_of_global_surveillance</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%81_(%E8%BB%9F%E9%AB%94)</t>
   </si>
   <si>
-    <t>公允 (軟體)</t>
+    <t>公允 (软体)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/MYSTIC_(surveillance_program)</t>
@@ -491,37 +491,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E7%9C%BC%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>五眼聯盟</t>
+    <t>五眼联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情報局</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦調查局</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>秘密情報局</t>
+    <t>秘密情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%83%85%E4%BA%94%E8%99%95</t>
   </si>
   <si>
-    <t>軍情五處</t>
+    <t>军情五处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦情報局</t>
+    <t>联邦情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E5%A4%96%E5%AE%89%E5%85%A8%E6%80%BB%E5%B1%80</t>
@@ -533,25 +527,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦安全局</t>
+    <t>联邦安全局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>中華人民共和國國家安全部</t>
+    <t>中华人民共和国国家安全部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%83%85%E5%A0%B1%E5%8F%8A%E7%89%B9%E6%AE%8A%E4%BD%BF%E5%91%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>以色列情報及特殊使命局</t>
+    <t>以色列情报及特殊使命局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
   </si>
   <si>
-    <t>微軟</t>
+    <t>微软</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%99%8E</t>
@@ -593,13 +587,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B7%9A%E4%B8%8A</t>
   </si>
   <si>
-    <t>美國線上</t>
+    <t>美国线上</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
+    <t>苹果公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Dropbox</t>
@@ -641,13 +635,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E5%8F%B2%E8%AB%BE%E7%99%BB</t>
   </si>
   <si>
-    <t>愛德華·史諾登</t>
+    <t>爱德华·史诺登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拉克·歐巴馬</t>
+    <t>巴拉克·欧巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%88%A9%E5%AE%89%C2%B7%E9%98%BF%E6%A1%91%E5%A5%87</t>
@@ -707,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>英美協定</t>
+    <t>英美协定</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lustre_(code_name)</t>
@@ -779,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E8%AB%9C</t>
   </si>
   <si>
-    <t>間諜</t>
+    <t>间谍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E6%8A%A5%E6%9C%BA%E6%9E%84</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%A2%BC%E5%AD%B8</t>
   </si>
   <si>
-    <t>密碼學</t>
+    <t>密码学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Tor</t>
@@ -803,19 +797,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E7%A7%81%E4%BA%BA%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>虛擬私人網路</t>
+    <t>虚拟私人网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E7%A7%81%E6%AC%8A</t>
   </si>
   <si>
-    <t>隱私權</t>
+    <t>隐私权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E8%87%AA%E7%94%B1</t>
@@ -827,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>人造衛星</t>
+    <t>人造卫星</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stop_Watching_Us</t>
@@ -857,9 +851,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%86%E7%BA%A7</t>
   </si>
   <si>
@@ -875,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%AC%E6%B0%91</t>
@@ -893,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BA%A4%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>社交網路</t>
+    <t>社交网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E6%AF%8F%E6%97%A5%E7%AE%80%E6%8A%A5</t>
@@ -905,25 +896,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A</t>
   </si>
   <si>
-    <t>威訊</t>
+    <t>威讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%96%AF%E8%AB%BE%E7%99%BB</t>
   </si>
   <si>
-    <t>愛德華·斯諾登</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華盛頓郵報</t>
+    <t>华盛顿邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -941,21 +929,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E6%AC%A7%E5%B7%B4%E9%A9%AC</t>
   </si>
   <si>
-    <t>巴拉克·欧巴马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
   </si>
   <si>
-    <t>华盛顿邮报</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%8A%A5</t>
   </si>
   <si>
-    <t>卫报</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%A8%E7%BA%BF</t>
   </si>
   <si>
@@ -989,13 +968,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%BE%8C%E9%96%80</t>
   </si>
   <si>
-    <t>軟件後門</t>
+    <t>软件后门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%AA%8C</t>
   </si>
   <si>
-    <t>網誌</t>
+    <t>网志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%81%94%E7%A4%BE</t>
@@ -1013,9 +992,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
   </si>
   <si>
-    <t>微软</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/United_States_person</t>
   </si>
   <si>
@@ -1031,13 +1007,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>歐巴馬</t>
+    <t>欧巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%8A%E7%99%BC%E4%BA%BA</t>
   </si>
   <si>
-    <t>告發人</t>
+    <t>告发人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/William_Binney</t>
@@ -1049,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>電信</t>
+    <t>电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AT%26T</t>
@@ -1067,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>美國參議員</t>
+    <t>美国参议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E5%B0%A4%E5%BE%B7%E5%B0%94</t>
@@ -1121,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
@@ -1139,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8%E7%99%BC%E8%A8%80%E4%BA%BA</t>
   </si>
   <si>
-    <t>中華人民共和國外交部發言人</t>
+    <t>中华人民共和国外交部发言人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%98%A5%E8%8E%B9</t>
@@ -1157,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%A1%8C%E6%94%BF%E9%95%B7%E5%AE%98</t>
   </si>
   <si>
-    <t>香港行政長官</t>
+    <t>香港行政长官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E6%8C%AF%E8%8B%B1</t>
@@ -1169,19 +1145,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>德國總理</t>
+    <t>德国总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>默克爾</t>
+    <t>默克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>巴西總統</t>
+    <t>巴西总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%A1%9E%E5%A4%AB</t>
@@ -1193,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>網路主權</t>
+    <t>网路主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E9%80%9A%E4%BF%A1%E9%9A%90%E7%A7%81%E6%B3%95</t>
@@ -1217,19 +1193,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國中央情報局</t>
+    <t>美国中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
   </si>
   <si>
-    <t>美國國務院</t>
+    <t>美国国务院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國防部</t>
+    <t>美国国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Hong_Kong</t>
@@ -4034,7 +4010,7 @@
         <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4060,10 +4036,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -4089,10 +4065,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4118,10 +4094,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4147,10 +4123,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4176,10 +4152,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4205,10 +4181,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4234,10 +4210,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4263,10 +4239,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4292,10 +4268,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -4321,10 +4297,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>11</v>
@@ -4350,10 +4326,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>17</v>
@@ -4379,10 +4355,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>11</v>
@@ -4408,10 +4384,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -4437,10 +4413,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4466,10 +4442,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4495,10 +4471,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4524,10 +4500,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -4553,10 +4529,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>6</v>
@@ -4582,10 +4558,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4611,10 +4587,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4640,10 +4616,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4669,10 +4645,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4698,10 +4674,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4727,10 +4703,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4785,10 +4761,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4814,10 +4790,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4843,10 +4819,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4872,10 +4848,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4901,10 +4877,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4930,10 +4906,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4959,10 +4935,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4988,10 +4964,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5017,10 +4993,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5046,10 +5022,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5075,10 +5051,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5104,10 +5080,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5133,10 +5109,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5191,10 +5167,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5220,10 +5196,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5249,10 +5225,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5278,10 +5254,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5336,10 +5312,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5365,10 +5341,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5394,10 +5370,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5423,10 +5399,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5452,10 +5428,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5481,10 +5457,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5510,10 +5486,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5539,10 +5515,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5568,10 +5544,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5597,10 +5573,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5626,10 +5602,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5655,10 +5631,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5684,10 +5660,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5713,10 +5689,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5742,10 +5718,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5771,10 +5747,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5800,10 +5776,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5829,10 +5805,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>5</v>
@@ -5858,10 +5834,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="G147" t="n">
         <v>7</v>
@@ -5887,10 +5863,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5916,10 +5892,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5945,10 +5921,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G150" t="n">
         <v>32</v>
@@ -5974,10 +5950,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6003,10 +5979,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6032,10 +6008,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6061,10 +6037,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6090,10 +6066,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6119,10 +6095,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6148,10 +6124,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6177,10 +6153,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6206,10 +6182,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6235,10 +6211,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6264,10 +6240,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6293,10 +6269,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -6322,10 +6298,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="G163" t="n">
         <v>4</v>
@@ -6351,10 +6327,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6380,10 +6356,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6409,10 +6385,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6438,10 +6414,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -6467,10 +6443,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6496,10 +6472,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F169" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6525,10 +6501,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6554,10 +6530,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6583,10 +6559,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6612,10 +6588,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6641,10 +6617,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>176</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6670,10 +6646,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6699,10 +6675,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6728,10 +6704,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6757,10 +6733,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6786,10 +6762,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -6815,10 +6791,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6844,10 +6820,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6873,10 +6849,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -6902,10 +6878,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6931,10 +6907,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6960,10 +6936,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7018,10 +6994,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7047,10 +7023,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -7076,10 +7052,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7105,10 +7081,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7134,10 +7110,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7163,10 +7139,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7192,10 +7168,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7221,10 +7197,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7250,10 +7226,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7279,10 +7255,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7308,10 +7284,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7337,10 +7313,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G198" t="n">
         <v>5</v>
@@ -7366,10 +7342,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7395,10 +7371,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7424,10 +7400,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7453,10 +7429,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -7482,10 +7458,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7511,10 +7487,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7540,10 +7516,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7598,10 +7574,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F207" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7656,10 +7632,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F209" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7685,10 +7661,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F210" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7714,10 +7690,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F211" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7743,10 +7719,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F212" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7772,10 +7748,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F213" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7801,10 +7777,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F214" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7830,10 +7806,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F215" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7859,10 +7835,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F216" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7888,10 +7864,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F217" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7917,10 +7893,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F218" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G218" t="n">
         <v>5</v>
@@ -7946,10 +7922,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F219" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
